--- a/src/test/resources/Sample_Suite_definition.xlsx
+++ b/src/test/resources/Sample_Suite_definition.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base_Config" sheetId="1" state="visible" r:id="rId2"/>
@@ -269,10 +269,10 @@
     <t xml:space="preserve">{"body":"${val[0]}"}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"Assert1": {"actual":"${fetch_pet_by_status_to_update_exec.pet_findByStatus.response[0]}","expected":"${fetch_pet_by_status_to_update_exec.pet_findByStatus.response[0]}"}, "Assert2":{"actual":"","expected":""}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{   "val": {     "operation": "remove",     "data": "${fetch_pet_by_status_to_update_exec.pet_findByStatus.response[0]}"   } }</t>
+    <t xml:space="preserve">{   "Assert1": {     "condition": [       "not_null",       "${fetch_pet_by_status_to_update_exec.pet_findByStatus.response[0].name}"    ],     "message": "Validation success"   } }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{   "val": {     "operation": "remove", "data": "${fetch_pet_by_status_to_update_exec.pet_findByStatus.response[0]}"   } }</t>
   </si>
   <si>
     <t xml:space="preserve">case_unique_name</t>
@@ -1018,8 +1018,8 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1231,7 +1231,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>60</v>
       </c>
@@ -1272,7 +1272,7 @@
   </sheetPr>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/Sample_Suite_definition.xlsx
+++ b/src/test/resources/Sample_Suite_definition.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="112">
   <si>
     <t xml:space="preserve">app_name</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t xml:space="preserve">{"username":"${user_name}","password":"${password}"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"write":"/tmp/sample.txt"}</t>
   </si>
   <si>
     <t xml:space="preserve">NOOP_MATCHER</t>
@@ -1019,7 +1022,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1272,8 +1275,8 @@
   </sheetPr>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1362,14 +1365,17 @@
       <c r="F2" s="0" t="s">
         <v>82</v>
       </c>
+      <c r="J2" s="0" t="s">
+        <v>83</v>
+      </c>
       <c r="L2" s="29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O2" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="154.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1378,35 +1384,35 @@
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O3" s="31" t="n">
         <v>200</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="600" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,10 +1423,10 @@
         <v>39</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>81</v>
@@ -1429,16 +1435,16 @@
       <c r="G4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O4" s="31" t="n">
         <v>200</v>
@@ -1450,22 +1456,22 @@
         <v>37</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>81</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O5" s="31" t="n">
         <v>200</v>
@@ -1477,10 +1483,10 @@
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>81</v>
@@ -1490,14 +1496,14 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O6" s="31" t="n">
         <v>200</v>
@@ -1509,28 +1515,28 @@
         <v>52</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>81</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O7" s="31" t="n">
         <v>200</v>
@@ -1541,19 +1547,19 @@
         <v>54</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>81</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O8" s="31" t="n">
         <v>200</v>
@@ -1564,22 +1570,22 @@
         <v>57</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O9" s="31" t="n">
         <v>200</v>
